--- a/team_specific_matrix/New Mexico St._B.xlsx
+++ b/team_specific_matrix/New Mexico St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2263513513513513</v>
+        <v>0.2318059299191375</v>
       </c>
       <c r="C2">
-        <v>0.5304054054054054</v>
+        <v>0.5148247978436657</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01689189189189189</v>
+        <v>0.01347708894878706</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003378378378378379</v>
+        <v>0.002695417789757413</v>
       </c>
       <c r="P2">
-        <v>0.1486486486486487</v>
+        <v>0.1536388140161725</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07432432432432433</v>
+        <v>0.08355795148247978</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01764705882352941</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C3">
-        <v>0.02352941176470588</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.711764705882353</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2176470588235294</v>
+        <v>0.2254901960784314</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06976744186046512</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7674418604651163</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1627906976744186</v>
+        <v>0.1568627450980392</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0861244019138756</v>
+        <v>0.104089219330855</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01913875598086124</v>
+        <v>0.01486988847583643</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1004784688995215</v>
+        <v>0.104089219330855</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2296650717703349</v>
+        <v>0.20817843866171</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03827751196172249</v>
+        <v>0.04460966542750929</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1339712918660287</v>
+        <v>0.1263940520446097</v>
       </c>
       <c r="R6">
-        <v>0.1100478468899522</v>
+        <v>0.09665427509293681</v>
       </c>
       <c r="S6">
-        <v>0.2822966507177033</v>
+        <v>0.3011152416356878</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1532258064516129</v>
+        <v>0.1420454545454546</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01612903225806452</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09677419354838709</v>
+        <v>0.08522727272727272</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1209677419354839</v>
+        <v>0.1079545454545455</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02419354838709677</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1451612903225807</v>
+        <v>0.125</v>
       </c>
       <c r="R7">
-        <v>0.08870967741935484</v>
+        <v>0.09659090909090909</v>
       </c>
       <c r="S7">
-        <v>0.3548387096774194</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1196319018404908</v>
+        <v>0.1157635467980296</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02147239263803681</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05521472392638037</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1288343558282209</v>
+        <v>0.125615763546798</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01533742331288344</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1319018404907975</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R8">
-        <v>0.08282208588957055</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="S8">
-        <v>0.4447852760736196</v>
+        <v>0.4433497536945813</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1101694915254237</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01694915254237288</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="F9">
-        <v>0.0847457627118644</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06779661016949153</v>
+        <v>0.06211180124223602</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02542372881355932</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1610169491525424</v>
+        <v>0.1490683229813665</v>
       </c>
       <c r="R9">
-        <v>0.1186440677966102</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="S9">
-        <v>0.4152542372881356</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1416490486257928</v>
+        <v>0.1300081766148814</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02959830866807611</v>
+        <v>0.02861815208503679</v>
       </c>
       <c r="E10">
-        <v>0.002114164904862579</v>
+        <v>0.001635322976287817</v>
       </c>
       <c r="F10">
-        <v>0.07822410147991543</v>
+        <v>0.0776778413736713</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1236786469344609</v>
+        <v>0.1210139002452984</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02219873150105708</v>
+        <v>0.02289452166802943</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1627906976744186</v>
+        <v>0.169255928045789</v>
       </c>
       <c r="R10">
-        <v>0.07505285412262157</v>
+        <v>0.08503679476696648</v>
       </c>
       <c r="S10">
-        <v>0.3646934460887949</v>
+        <v>0.3638593622240393</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.106280193236715</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1207729468599034</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="K11">
-        <v>0.2077294685990338</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="L11">
-        <v>0.5603864734299517</v>
+        <v>0.5340136054421769</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004830917874396135</v>
+        <v>0.006802721088435374</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7295081967213115</v>
+        <v>0.7160493827160493</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2049180327868853</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="L12">
-        <v>0.04098360655737705</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02459016393442623</v>
+        <v>0.0308641975308642</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.59375</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.40625</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03592814371257485</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.155688622754491</v>
+        <v>0.1330275229357798</v>
       </c>
       <c r="I15">
-        <v>0.0718562874251497</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="J15">
-        <v>0.3892215568862276</v>
+        <v>0.3899082568807339</v>
       </c>
       <c r="K15">
-        <v>0.07784431137724551</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005988023952095809</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="O15">
-        <v>0.0658682634730539</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1976047904191617</v>
+        <v>0.2155963302752294</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02072538860103627</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2227979274611399</v>
+        <v>0.2212765957446808</v>
       </c>
       <c r="I16">
-        <v>0.08290155440414508</v>
+        <v>0.08085106382978724</v>
       </c>
       <c r="J16">
-        <v>0.3212435233160622</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="K16">
-        <v>0.1139896373056995</v>
+        <v>0.1106382978723404</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0310880829015544</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03626943005181347</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1709844559585492</v>
+        <v>0.1574468085106383</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0310077519379845</v>
+        <v>0.02949852507374631</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.189922480620155</v>
+        <v>0.191740412979351</v>
       </c>
       <c r="I17">
-        <v>0.06201550387596899</v>
+        <v>0.06784660766961652</v>
       </c>
       <c r="J17">
-        <v>0.4457364341085271</v>
+        <v>0.4454277286135693</v>
       </c>
       <c r="K17">
-        <v>0.1124031007751938</v>
+        <v>0.1061946902654867</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01937984496124031</v>
+        <v>0.01474926253687316</v>
       </c>
       <c r="N17">
-        <v>0.003875968992248062</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="O17">
-        <v>0.05813953488372093</v>
+        <v>0.05604719764011799</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07751937984496124</v>
+        <v>0.08554572271386431</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04861111111111111</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2013888888888889</v>
+        <v>0.1907216494845361</v>
       </c>
       <c r="I18">
-        <v>0.02083333333333333</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="J18">
-        <v>0.4444444444444444</v>
+        <v>0.4329896907216495</v>
       </c>
       <c r="K18">
-        <v>0.0625</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08333333333333333</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1388888888888889</v>
+        <v>0.1288659793814433</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02756339581036384</v>
+        <v>0.02775441547518924</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2017640573318633</v>
+        <v>0.1925988225399495</v>
       </c>
       <c r="I19">
-        <v>0.07717750826901874</v>
+        <v>0.07821698906644239</v>
       </c>
       <c r="J19">
-        <v>0.3814773980154355</v>
+        <v>0.3877207737594617</v>
       </c>
       <c r="K19">
-        <v>0.09812568908489526</v>
+        <v>0.1093355761143818</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02756339581036384</v>
+        <v>0.02523128679562658</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07497243660418963</v>
+        <v>0.07401177460050462</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1113561190738699</v>
+        <v>0.1051303616484441</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/New Mexico St._B.xlsx
+++ b/team_specific_matrix/New Mexico St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2318059299191375</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="C2">
-        <v>0.5148247978436657</v>
+        <v>0.5223880597014925</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01347708894878706</v>
+        <v>0.01243781094527363</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.002695417789757413</v>
+        <v>0.002487562189054726</v>
       </c>
       <c r="P2">
-        <v>0.1536388140161725</v>
+        <v>0.1467661691542289</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08355795148247978</v>
+        <v>0.09203980099502487</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01470588235294118</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="C3">
-        <v>0.02450980392156863</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02941176470588235</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7058823529411765</v>
+        <v>0.7040358744394619</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2254901960784314</v>
+        <v>0.2331838565022422</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7843137254901961</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1568627450980392</v>
+        <v>0.1403508771929824</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.104089219330855</v>
+        <v>0.09797297297297297</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01486988847583643</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.104089219330855</v>
+        <v>0.09797297297297297</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.20817843866171</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04460966542750929</v>
+        <v>0.04391891891891892</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1263940520446097</v>
+        <v>0.1385135135135135</v>
       </c>
       <c r="R6">
-        <v>0.09665427509293681</v>
+        <v>0.1047297297297297</v>
       </c>
       <c r="S6">
-        <v>0.3011152416356878</v>
+        <v>0.3006756756756757</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1420454545454546</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01136363636363636</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08522727272727272</v>
+        <v>0.078125</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1079545454545455</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02272727272727273</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>0.125</v>
       </c>
       <c r="R7">
-        <v>0.09659090909090909</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="S7">
-        <v>0.4090909090909091</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1157635467980296</v>
+        <v>0.1143497757847534</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01970443349753695</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05911330049261083</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.125615763546798</v>
+        <v>0.1255605381165919</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01477832512315271</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1428571428571428</v>
+        <v>0.1457399103139013</v>
       </c>
       <c r="R8">
-        <v>0.07881773399014778</v>
+        <v>0.08295964125560538</v>
       </c>
       <c r="S8">
-        <v>0.4433497536945813</v>
+        <v>0.4327354260089686</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.124223602484472</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0124223602484472</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="E9">
-        <v>0.006211180124223602</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="F9">
-        <v>0.08695652173913043</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06211180124223602</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02484472049689441</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1490683229813665</v>
+        <v>0.15</v>
       </c>
       <c r="R9">
-        <v>0.1055900621118012</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="S9">
-        <v>0.4285714285714285</v>
+        <v>0.4055555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1300081766148814</v>
+        <v>0.1295606850335071</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02861815208503679</v>
+        <v>0.02903946388682055</v>
       </c>
       <c r="E10">
-        <v>0.001635322976287817</v>
+        <v>0.001489203276247208</v>
       </c>
       <c r="F10">
-        <v>0.0776778413736713</v>
+        <v>0.08041697691734921</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1210139002452984</v>
+        <v>0.1191362620997766</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02289452166802943</v>
+        <v>0.02084884586746091</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.169255928045789</v>
+        <v>0.1734921816827997</v>
       </c>
       <c r="R10">
-        <v>0.08503679476696648</v>
+        <v>0.08637379002233805</v>
       </c>
       <c r="S10">
-        <v>0.3638593622240393</v>
+        <v>0.3596425912137007</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1326530612244898</v>
+        <v>0.1310975609756098</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1020408163265306</v>
+        <v>0.1067073170731707</v>
       </c>
       <c r="K11">
-        <v>0.2244897959183673</v>
+        <v>0.2286585365853659</v>
       </c>
       <c r="L11">
-        <v>0.5340136054421769</v>
+        <v>0.5274390243902439</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006802721088435374</v>
+        <v>0.006097560975609756</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7160493827160493</v>
+        <v>0.7094972067039106</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2160493827160494</v>
+        <v>0.223463687150838</v>
       </c>
       <c r="K12">
-        <v>0.006172839506172839</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="L12">
-        <v>0.0308641975308642</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0308641975308642</v>
+        <v>0.02793296089385475</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6585365853658537</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3170731707317073</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02439024390243903</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03211009174311927</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1330275229357798</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="I15">
-        <v>0.06880733944954129</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="J15">
-        <v>0.3899082568807339</v>
+        <v>0.3865546218487395</v>
       </c>
       <c r="K15">
-        <v>0.07798165137614679</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01376146788990826</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="N15">
-        <v>0.004587155963302753</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="O15">
-        <v>0.06422018348623854</v>
+        <v>0.06302521008403361</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2155963302752294</v>
+        <v>0.2100840336134454</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02127659574468085</v>
+        <v>0.01953125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2212765957446808</v>
+        <v>0.2109375</v>
       </c>
       <c r="I16">
-        <v>0.08085106382978724</v>
+        <v>0.07421875</v>
       </c>
       <c r="J16">
-        <v>0.3404255319148936</v>
+        <v>0.34375</v>
       </c>
       <c r="K16">
-        <v>0.1106382978723404</v>
+        <v>0.125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02553191489361702</v>
+        <v>0.0234375</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0425531914893617</v>
+        <v>0.046875</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1574468085106383</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02949852507374631</v>
+        <v>0.02879581151832461</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.191740412979351</v>
+        <v>0.1884816753926702</v>
       </c>
       <c r="I17">
-        <v>0.06784660766961652</v>
+        <v>0.06544502617801047</v>
       </c>
       <c r="J17">
-        <v>0.4454277286135693</v>
+        <v>0.450261780104712</v>
       </c>
       <c r="K17">
-        <v>0.1061946902654867</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01474926253687316</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="N17">
-        <v>0.002949852507374631</v>
+        <v>0.002617801047120419</v>
       </c>
       <c r="O17">
-        <v>0.05604719764011799</v>
+        <v>0.05759162303664921</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08554572271386431</v>
+        <v>0.08115183246073299</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04123711340206185</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1907216494845361</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="I18">
-        <v>0.05154639175257732</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="J18">
-        <v>0.4329896907216495</v>
+        <v>0.426605504587156</v>
       </c>
       <c r="K18">
-        <v>0.07731958762886598</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01030927835051546</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06701030927835051</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1288659793814433</v>
+        <v>0.1284403669724771</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02775441547518924</v>
+        <v>0.02786377708978328</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1925988225399495</v>
+        <v>0.1934984520123839</v>
       </c>
       <c r="I19">
-        <v>0.07821698906644239</v>
+        <v>0.07972136222910217</v>
       </c>
       <c r="J19">
-        <v>0.3877207737594617</v>
+        <v>0.3893188854489164</v>
       </c>
       <c r="K19">
-        <v>0.1093355761143818</v>
+        <v>0.1075851393188854</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02523128679562658</v>
+        <v>0.02476780185758514</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07401177460050462</v>
+        <v>0.07198142414860681</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1051303616484441</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
   </sheetData>
